--- a/Results/report1.xlsx
+++ b/Results/report1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costa\Documents\Repos\NN_images\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05317713-EB85-4694-B9F1-4B46C4B6DAFA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D5B6B9-48C2-40A5-95C5-77C3715F264E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{F5466B6F-9660-4BD9-A622-BEC8D4551DC5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="12120" xr2:uid="{8D41FEE5-B69C-4A83-B34C-032F3181DEEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -184,6 +184,189 @@
   </si>
   <si>
     <t>5_1</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>5_3</t>
+  </si>
+  <si>
+    <t>6_1</t>
+  </si>
+  <si>
+    <t>6_2</t>
+  </si>
+  <si>
+    <t>6_3</t>
+  </si>
+  <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>trainscg</t>
+  </si>
+  <si>
+    <t>7_2</t>
+  </si>
+  <si>
+    <t>7_3</t>
+  </si>
+  <si>
+    <t>8_1</t>
+  </si>
+  <si>
+    <t>8_2</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>9_1</t>
+  </si>
+  <si>
+    <t>9_2</t>
+  </si>
+  <si>
+    <t>9_3</t>
+  </si>
+  <si>
+    <t>10_1</t>
+  </si>
+  <si>
+    <t>trainoss</t>
+  </si>
+  <si>
+    <t>10_2</t>
+  </si>
+  <si>
+    <t>10_3</t>
+  </si>
+  <si>
+    <t>11_1</t>
+  </si>
+  <si>
+    <t>11_2</t>
+  </si>
+  <si>
+    <t>11_3</t>
+  </si>
+  <si>
+    <t>12_1</t>
+  </si>
+  <si>
+    <t>12_2</t>
+  </si>
+  <si>
+    <t>12_3</t>
+  </si>
+  <si>
+    <t>13_1</t>
+  </si>
+  <si>
+    <t>13_2</t>
+  </si>
+  <si>
+    <t>13_3</t>
+  </si>
+  <si>
+    <t>14_1</t>
+  </si>
+  <si>
+    <t>14_2</t>
+  </si>
+  <si>
+    <t>14_3</t>
+  </si>
+  <si>
+    <t>15_1</t>
+  </si>
+  <si>
+    <t>15_2</t>
+  </si>
+  <si>
+    <t>15_3</t>
+  </si>
+  <si>
+    <t>16_1</t>
+  </si>
+  <si>
+    <t>16_2</t>
+  </si>
+  <si>
+    <t>16_3</t>
+  </si>
+  <si>
+    <t>17_1</t>
+  </si>
+  <si>
+    <t>17_2</t>
+  </si>
+  <si>
+    <t>17_3</t>
+  </si>
+  <si>
+    <t>18_1</t>
+  </si>
+  <si>
+    <t>18_2</t>
+  </si>
+  <si>
+    <t>18_3</t>
+  </si>
+  <si>
+    <t>19_1</t>
+  </si>
+  <si>
+    <t>19_2</t>
+  </si>
+  <si>
+    <t>19_3</t>
+  </si>
+  <si>
+    <t>20_1</t>
+  </si>
+  <si>
+    <t>20_2</t>
+  </si>
+  <si>
+    <t>20_3</t>
+  </si>
+  <si>
+    <t>21_1</t>
+  </si>
+  <si>
+    <t>21_2</t>
+  </si>
+  <si>
+    <t>21_3</t>
+  </si>
+  <si>
+    <t>22_1</t>
+  </si>
+  <si>
+    <t>22_2</t>
+  </si>
+  <si>
+    <t>22_3</t>
+  </si>
+  <si>
+    <t>23_1</t>
+  </si>
+  <si>
+    <t>23_2</t>
+  </si>
+  <si>
+    <t>23_3</t>
+  </si>
+  <si>
+    <t>24_1</t>
+  </si>
+  <si>
+    <t>24_2</t>
+  </si>
+  <si>
+    <t>24_3</t>
   </si>
 </sst>
 </file>
@@ -534,11 +717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC37F9A3-F41C-40B4-97FE-CFF43842D703}">
-  <dimension ref="A1:AF16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A72E622-3525-45AF-BA7C-76BA831B69FE}">
+  <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:AF16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:AF75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,13 +904,13 @@
         <v>1000</v>
       </c>
       <c r="AA4">
-        <v>3691.0000000000005</v>
+        <v>2109.0000000000018</v>
       </c>
       <c r="AB4">
-        <v>1.6317809449766726E-2</v>
+        <v>1.6912583180787571E-2</v>
       </c>
       <c r="AE4">
-        <v>53.535353535353536</v>
+        <v>50.505050505050505</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -810,13 +993,13 @@
         <v>1000</v>
       </c>
       <c r="AA5">
-        <v>3459.0000000000014</v>
+        <v>2082.0000000000009</v>
       </c>
       <c r="AB5">
-        <v>1.1487965583935755E-2</v>
+        <v>4.4096415029763671E-2</v>
       </c>
       <c r="AE5">
-        <v>71.717171717171709</v>
+        <v>1.0101010101010102</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -896,16 +1079,16 @@
         <v>1000</v>
       </c>
       <c r="Z6">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="AA6">
-        <v>3515.9999999999982</v>
+        <v>2130.0000000000027</v>
       </c>
       <c r="AB6">
-        <v>2.516168277227835E-2</v>
+        <v>1.5323993434354762E-2</v>
       </c>
       <c r="AE6">
-        <v>40.404040404040401</v>
+        <v>54.54545454545454</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -988,13 +1171,13 @@
         <v>2500</v>
       </c>
       <c r="AA7">
-        <v>8698.0000000000036</v>
+        <v>5183.9999999999973</v>
       </c>
       <c r="AB7">
-        <v>1.7098049663255788E-2</v>
+        <v>8.1170527692749784E-3</v>
       </c>
       <c r="AE7">
-        <v>49.494949494949495</v>
+        <v>79.797979797979806</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1077,13 +1260,13 @@
         <v>2500</v>
       </c>
       <c r="AA8">
-        <v>8942</v>
+        <v>5228.9999999999991</v>
       </c>
       <c r="AB8">
-        <v>1.1942688733981289E-2</v>
+        <v>9.5059573545320936E-3</v>
       </c>
       <c r="AE8">
-        <v>66.666666666666657</v>
+        <v>75.757575757575751</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1166,13 +1349,13 @@
         <v>2500</v>
       </c>
       <c r="AA9">
-        <v>8872</v>
+        <v>5108.0000000000009</v>
       </c>
       <c r="AB9">
-        <v>1.6472763158995062E-2</v>
+        <v>9.0661977645146528E-3</v>
       </c>
       <c r="AE9">
-        <v>51.515151515151516</v>
+        <v>76.767676767676761</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -1252,16 +1435,16 @@
         <v>5000</v>
       </c>
       <c r="Z10">
-        <v>4987</v>
+        <v>5000</v>
       </c>
       <c r="AA10">
-        <v>17990</v>
+        <v>10149.999999999998</v>
       </c>
       <c r="AB10">
-        <v>3.1213200538729837E-3</v>
+        <v>4.50012055175946E-3</v>
       </c>
       <c r="AE10">
-        <v>91.919191919191917</v>
+        <v>89.898989898989896</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1338,19 +1521,19 @@
         <v>37</v>
       </c>
       <c r="Y11">
-        <v>5000</v>
+        <v>1592</v>
       </c>
       <c r="Z11">
-        <v>5000</v>
+        <v>951</v>
       </c>
       <c r="AA11">
-        <v>17837.999999999996</v>
+        <v>3286.9999999999991</v>
       </c>
       <c r="AB11">
-        <v>3.3846942863856081E-3</v>
+        <v>2.3220518192853135E-2</v>
       </c>
       <c r="AE11">
-        <v>90.909090909090907</v>
+        <v>42.424242424242422</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1430,16 +1613,16 @@
         <v>5000</v>
       </c>
       <c r="Z12">
-        <v>4997</v>
+        <v>4993</v>
       </c>
       <c r="AA12">
-        <v>17965.000000000004</v>
+        <v>10243.000000000002</v>
       </c>
       <c r="AB12">
-        <v>2.3235770928020168E-3</v>
+        <v>3.33129340106078E-3</v>
       </c>
       <c r="AE12">
-        <v>96.969696969696969</v>
+        <v>95.959595959595958</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1519,16 +1702,16 @@
         <v>1000</v>
       </c>
       <c r="Z13">
-        <v>1000</v>
+        <v>103</v>
       </c>
       <c r="AA13">
-        <v>4319.0000000000009</v>
+        <v>2171.9999999999973</v>
       </c>
       <c r="AB13">
-        <v>2.0727889263840428E-2</v>
+        <v>1.7595110618809813E-2</v>
       </c>
       <c r="AE13">
-        <v>46.464646464646464</v>
+        <v>54.54545454545454</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1608,16 +1791,16 @@
         <v>1000</v>
       </c>
       <c r="Z14">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="AA14">
-        <v>4413</v>
+        <v>2170.9999999999995</v>
       </c>
       <c r="AB14">
-        <v>1.957279468255229E-2</v>
+        <v>1.8383198337056261E-2</v>
       </c>
       <c r="AE14">
-        <v>53.535353535353536</v>
+        <v>49.494949494949495</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -1697,16 +1880,16 @@
         <v>1000</v>
       </c>
       <c r="Z15">
-        <v>352</v>
+        <v>491</v>
       </c>
       <c r="AA15">
-        <v>4381</v>
+        <v>2233.9999999999945</v>
       </c>
       <c r="AB15">
-        <v>1.9622887673391102E-2</v>
+        <v>2.1893709573819406E-2</v>
       </c>
       <c r="AE15">
-        <v>46.464646464646464</v>
+        <v>45.454545454545453</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -1786,16 +1969,5267 @@
         <v>2500</v>
       </c>
       <c r="Z16">
+        <v>114</v>
+      </c>
+      <c r="AA16">
+        <v>5445.9999999999982</v>
+      </c>
+      <c r="AB16">
+        <v>2.0803906229309041E-2</v>
+      </c>
+      <c r="AE16">
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>34</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17">
+        <v>0.01</v>
+      </c>
+      <c r="R17">
+        <v>1.05</v>
+      </c>
+      <c r="S17">
+        <v>0.7</v>
+      </c>
+      <c r="T17">
+        <v>0.7</v>
+      </c>
+      <c r="U17" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17">
+        <v>2500</v>
+      </c>
+      <c r="Z17">
+        <v>2500</v>
+      </c>
+      <c r="AA17">
+        <v>5462</v>
+      </c>
+      <c r="AB17">
+        <v>2.2273811347374176E-2</v>
+      </c>
+      <c r="AE17">
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18">
+        <v>0.01</v>
+      </c>
+      <c r="R18">
+        <v>1.05</v>
+      </c>
+      <c r="S18">
+        <v>0.7</v>
+      </c>
+      <c r="T18">
+        <v>0.7</v>
+      </c>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18">
+        <v>2500</v>
+      </c>
+      <c r="Z18">
+        <v>541</v>
+      </c>
+      <c r="AA18">
+        <v>5462</v>
+      </c>
+      <c r="AB18">
+        <v>1.862207590771146E-2</v>
+      </c>
+      <c r="AE18">
+        <v>48.484848484848484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>34</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19">
+        <v>0.01</v>
+      </c>
+      <c r="R19">
+        <v>1.05</v>
+      </c>
+      <c r="S19">
+        <v>0.7</v>
+      </c>
+      <c r="T19">
+        <v>0.7</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s">
+        <v>37</v>
+      </c>
+      <c r="X19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y19">
+        <v>5000</v>
+      </c>
+      <c r="Z19">
+        <v>107</v>
+      </c>
+      <c r="AA19">
+        <v>10790</v>
+      </c>
+      <c r="AB19">
+        <v>2.156711677684936E-2</v>
+      </c>
+      <c r="AE19">
+        <v>42.424242424242422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="AA16">
-        <v>10511</v>
-      </c>
-      <c r="AB16">
-        <v>2.0960300322059245E-2</v>
-      </c>
-      <c r="AE16">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>34</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20">
+        <v>0.01</v>
+      </c>
+      <c r="R20">
+        <v>1.05</v>
+      </c>
+      <c r="S20">
+        <v>0.7</v>
+      </c>
+      <c r="T20">
+        <v>0.7</v>
+      </c>
+      <c r="U20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y20">
+        <v>5000</v>
+      </c>
+      <c r="Z20">
+        <v>3904</v>
+      </c>
+      <c r="AA20">
+        <v>10914.000000000002</v>
+      </c>
+      <c r="AB20">
+        <v>1.7925247424580269E-2</v>
+      </c>
+      <c r="AE20">
+        <v>51.515151515151516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21">
+        <v>34</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21">
+        <v>0.01</v>
+      </c>
+      <c r="R21">
+        <v>1.05</v>
+      </c>
+      <c r="S21">
+        <v>0.7</v>
+      </c>
+      <c r="T21">
+        <v>0.7</v>
+      </c>
+      <c r="U21" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y21">
+        <v>5000</v>
+      </c>
+      <c r="Z21">
+        <v>5000</v>
+      </c>
+      <c r="AA21">
+        <v>10959.000000000004</v>
+      </c>
+      <c r="AB21">
+        <v>2.1204031012930811E-2</v>
+      </c>
+      <c r="AE21">
         <v>47.474747474747474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>34</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <v>34</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22">
+        <v>0.01</v>
+      </c>
+      <c r="R22">
+        <v>1.05</v>
+      </c>
+      <c r="S22">
+        <v>0.7</v>
+      </c>
+      <c r="T22">
+        <v>0.7</v>
+      </c>
+      <c r="U22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y22">
+        <v>1000</v>
+      </c>
+      <c r="Z22">
+        <v>1000</v>
+      </c>
+      <c r="AA22">
+        <v>3081.0000000000005</v>
+      </c>
+      <c r="AB22">
+        <v>1.1299320433082113E-2</v>
+      </c>
+      <c r="AE22">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23">
+        <v>34</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23">
+        <v>0.01</v>
+      </c>
+      <c r="R23">
+        <v>1.05</v>
+      </c>
+      <c r="S23">
+        <v>0.7</v>
+      </c>
+      <c r="T23">
+        <v>0.7</v>
+      </c>
+      <c r="U23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y23">
+        <v>1000</v>
+      </c>
+      <c r="Z23">
+        <v>1000</v>
+      </c>
+      <c r="AA23">
+        <v>3038.0000000000005</v>
+      </c>
+      <c r="AB23">
+        <v>1.0146986477747049E-2</v>
+      </c>
+      <c r="AE23">
+        <v>68.686868686868678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24">
+        <v>34</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24">
+        <v>0.01</v>
+      </c>
+      <c r="R24">
+        <v>1.05</v>
+      </c>
+      <c r="S24">
+        <v>0.7</v>
+      </c>
+      <c r="T24">
+        <v>0.7</v>
+      </c>
+      <c r="U24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" t="s">
+        <v>37</v>
+      </c>
+      <c r="X24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y24">
+        <v>1000</v>
+      </c>
+      <c r="Z24">
+        <v>1000</v>
+      </c>
+      <c r="AA24">
+        <v>3031.9999999999982</v>
+      </c>
+      <c r="AB24">
+        <v>5.3911960124879248E-3</v>
+      </c>
+      <c r="AE24">
+        <v>83.838383838383834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>34</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25">
+        <v>34</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25">
+        <v>0.01</v>
+      </c>
+      <c r="R25">
+        <v>1.05</v>
+      </c>
+      <c r="S25">
+        <v>0.7</v>
+      </c>
+      <c r="T25">
+        <v>0.7</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y25">
+        <v>2500</v>
+      </c>
+      <c r="Z25">
+        <v>2500</v>
+      </c>
+      <c r="AA25">
+        <v>7492.0000000000009</v>
+      </c>
+      <c r="AB25">
+        <v>6.6426166521315558E-3</v>
+      </c>
+      <c r="AE25">
+        <v>80.808080808080803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>34</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26">
+        <v>34</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26">
+        <v>0.01</v>
+      </c>
+      <c r="R26">
+        <v>1.05</v>
+      </c>
+      <c r="S26">
+        <v>0.7</v>
+      </c>
+      <c r="T26">
+        <v>0.7</v>
+      </c>
+      <c r="U26" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" t="s">
+        <v>37</v>
+      </c>
+      <c r="W26" t="s">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y26">
+        <v>2500</v>
+      </c>
+      <c r="Z26">
+        <v>2500</v>
+      </c>
+      <c r="AA26">
+        <v>7553.9999999999982</v>
+      </c>
+      <c r="AB26">
+        <v>2.2973895079338811E-2</v>
+      </c>
+      <c r="AE26">
+        <v>40.404040404040401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>34</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27">
+        <v>0.01</v>
+      </c>
+      <c r="R27">
+        <v>1.05</v>
+      </c>
+      <c r="S27">
+        <v>0.7</v>
+      </c>
+      <c r="T27">
+        <v>0.7</v>
+      </c>
+      <c r="U27" t="s">
+        <v>39</v>
+      </c>
+      <c r="V27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y27">
+        <v>2500</v>
+      </c>
+      <c r="Z27">
+        <v>2500</v>
+      </c>
+      <c r="AA27">
+        <v>7453.0000000000027</v>
+      </c>
+      <c r="AB27">
+        <v>1.8155041119392819E-2</v>
+      </c>
+      <c r="AE27">
+        <v>50.505050505050505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28">
+        <v>34</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28">
+        <v>0.01</v>
+      </c>
+      <c r="R28">
+        <v>1.05</v>
+      </c>
+      <c r="S28">
+        <v>0.7</v>
+      </c>
+      <c r="T28">
+        <v>0.7</v>
+      </c>
+      <c r="U28" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s">
+        <v>37</v>
+      </c>
+      <c r="X28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y28">
+        <v>5000</v>
+      </c>
+      <c r="Z28">
+        <v>8</v>
+      </c>
+      <c r="AA28">
+        <v>10734.000000000002</v>
+      </c>
+      <c r="AB28">
+        <v>2.9411764719977949E-2</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29">
+        <v>34</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29">
+        <v>0.01</v>
+      </c>
+      <c r="R29">
+        <v>1.05</v>
+      </c>
+      <c r="S29">
+        <v>0.7</v>
+      </c>
+      <c r="T29">
+        <v>0.7</v>
+      </c>
+      <c r="U29" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" t="s">
+        <v>37</v>
+      </c>
+      <c r="X29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y29">
+        <v>5000</v>
+      </c>
+      <c r="Z29">
+        <v>5000</v>
+      </c>
+      <c r="AA29">
+        <v>15145</v>
+      </c>
+      <c r="AB29">
+        <v>4.756588936211662E-3</v>
+      </c>
+      <c r="AE29">
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30">
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30">
+        <v>0.01</v>
+      </c>
+      <c r="R30">
+        <v>1.05</v>
+      </c>
+      <c r="S30">
+        <v>0.7</v>
+      </c>
+      <c r="T30">
+        <v>0.7</v>
+      </c>
+      <c r="U30" t="s">
+        <v>39</v>
+      </c>
+      <c r="V30" t="s">
+        <v>37</v>
+      </c>
+      <c r="W30" t="s">
+        <v>37</v>
+      </c>
+      <c r="X30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y30">
+        <v>5000</v>
+      </c>
+      <c r="Z30">
+        <v>5000</v>
+      </c>
+      <c r="AA30">
+        <v>15494.000000000004</v>
+      </c>
+      <c r="AB30">
+        <v>1.5075071859005243E-3</v>
+      </c>
+      <c r="AE30">
+        <v>94.949494949494948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31">
+        <v>0.01</v>
+      </c>
+      <c r="R31">
+        <v>1.05</v>
+      </c>
+      <c r="S31">
+        <v>0.7</v>
+      </c>
+      <c r="T31">
+        <v>0.7</v>
+      </c>
+      <c r="U31" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31" t="s">
+        <v>37</v>
+      </c>
+      <c r="X31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y31">
+        <v>1000</v>
+      </c>
+      <c r="Z31">
+        <v>1000</v>
+      </c>
+      <c r="AA31">
+        <v>7649.0000000000009</v>
+      </c>
+      <c r="AB31">
+        <v>2.8778216333427951E-2</v>
+      </c>
+      <c r="AE31">
+        <v>4.0404040404040407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32">
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32">
+        <v>0.01</v>
+      </c>
+      <c r="R32">
+        <v>1.05</v>
+      </c>
+      <c r="S32">
+        <v>0.7</v>
+      </c>
+      <c r="T32">
+        <v>0.7</v>
+      </c>
+      <c r="U32" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" t="s">
+        <v>37</v>
+      </c>
+      <c r="W32" t="s">
+        <v>37</v>
+      </c>
+      <c r="X32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y32">
+        <v>1000</v>
+      </c>
+      <c r="Z32">
+        <v>626</v>
+      </c>
+      <c r="AA32">
+        <v>5387</v>
+      </c>
+      <c r="AB32">
+        <v>2.9260935252729544E-2</v>
+      </c>
+      <c r="AE32">
+        <v>3.0303030303030303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33">
+        <v>34</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q33">
+        <v>0.01</v>
+      </c>
+      <c r="R33">
+        <v>1.05</v>
+      </c>
+      <c r="S33">
+        <v>0.7</v>
+      </c>
+      <c r="T33">
+        <v>0.7</v>
+      </c>
+      <c r="U33" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" t="s">
+        <v>37</v>
+      </c>
+      <c r="W33" t="s">
+        <v>37</v>
+      </c>
+      <c r="X33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y33">
+        <v>1000</v>
+      </c>
+      <c r="Z33">
+        <v>14</v>
+      </c>
+      <c r="AA33">
+        <v>3016</v>
+      </c>
+      <c r="AB33">
+        <v>2.940870218819594E-2</v>
+      </c>
+      <c r="AE33">
+        <v>1.0101010101010102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34">
+        <v>34</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34">
+        <v>0.01</v>
+      </c>
+      <c r="R34">
+        <v>1.05</v>
+      </c>
+      <c r="S34">
+        <v>0.7</v>
+      </c>
+      <c r="T34">
+        <v>0.7</v>
+      </c>
+      <c r="U34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" t="s">
+        <v>37</v>
+      </c>
+      <c r="W34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y34">
+        <v>2500</v>
+      </c>
+      <c r="Z34">
+        <v>449</v>
+      </c>
+      <c r="AA34">
+        <v>9204</v>
+      </c>
+      <c r="AB34">
+        <v>2.9356333084256905E-2</v>
+      </c>
+      <c r="AE34">
+        <v>3.0303030303030303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q35">
+        <v>0.01</v>
+      </c>
+      <c r="R35">
+        <v>1.05</v>
+      </c>
+      <c r="S35">
+        <v>0.7</v>
+      </c>
+      <c r="T35">
+        <v>0.7</v>
+      </c>
+      <c r="U35" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" t="s">
+        <v>37</v>
+      </c>
+      <c r="W35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y35">
+        <v>7</v>
+      </c>
+      <c r="Z35">
+        <v>7</v>
+      </c>
+      <c r="AA35">
+        <v>77.999999999999403</v>
+      </c>
+      <c r="AB35">
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="AE35">
+        <v>10.1010101010101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36">
+        <v>34</v>
+      </c>
+      <c r="L36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q36">
+        <v>0.01</v>
+      </c>
+      <c r="R36">
+        <v>1.05</v>
+      </c>
+      <c r="S36">
+        <v>0.7</v>
+      </c>
+      <c r="T36">
+        <v>0.7</v>
+      </c>
+      <c r="U36" t="s">
+        <v>39</v>
+      </c>
+      <c r="V36" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36" t="s">
+        <v>37</v>
+      </c>
+      <c r="X36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y36">
+        <v>2500</v>
+      </c>
+      <c r="Z36">
+        <v>2500</v>
+      </c>
+      <c r="AA36">
+        <v>14363</v>
+      </c>
+      <c r="AB36">
+        <v>2.2858500551849702E-2</v>
+      </c>
+      <c r="AE36">
+        <v>40.404040404040401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37">
+        <v>34</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37">
+        <v>0.01</v>
+      </c>
+      <c r="R37">
+        <v>1.05</v>
+      </c>
+      <c r="S37">
+        <v>0.7</v>
+      </c>
+      <c r="T37">
+        <v>0.7</v>
+      </c>
+      <c r="U37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V37" t="s">
+        <v>37</v>
+      </c>
+      <c r="W37" t="s">
+        <v>37</v>
+      </c>
+      <c r="X37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y37">
+        <v>5000</v>
+      </c>
+      <c r="Z37">
+        <v>5000</v>
+      </c>
+      <c r="AA37">
+        <v>29054.999999999996</v>
+      </c>
+      <c r="AB37">
+        <v>2.4248573331611241E-2</v>
+      </c>
+      <c r="AE37">
+        <v>39.393939393939391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38">
+        <v>34</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38">
+        <v>34</v>
+      </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q38">
+        <v>0.01</v>
+      </c>
+      <c r="R38">
+        <v>1.05</v>
+      </c>
+      <c r="S38">
+        <v>0.7</v>
+      </c>
+      <c r="T38">
+        <v>0.7</v>
+      </c>
+      <c r="U38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" t="s">
+        <v>37</v>
+      </c>
+      <c r="W38" t="s">
+        <v>37</v>
+      </c>
+      <c r="X38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y38">
+        <v>5000</v>
+      </c>
+      <c r="Z38">
+        <v>12</v>
+      </c>
+      <c r="AA38">
+        <v>14791.000000000002</v>
+      </c>
+      <c r="AB38">
+        <v>2.9408701943562768E-2</v>
+      </c>
+      <c r="AE38">
+        <v>1.0101010101010102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39">
+        <v>99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39">
+        <v>34</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39">
+        <v>34</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q39">
+        <v>0.01</v>
+      </c>
+      <c r="R39">
+        <v>1.05</v>
+      </c>
+      <c r="S39">
+        <v>0.7</v>
+      </c>
+      <c r="T39">
+        <v>0.7</v>
+      </c>
+      <c r="U39" t="s">
+        <v>39</v>
+      </c>
+      <c r="V39" t="s">
+        <v>37</v>
+      </c>
+      <c r="W39" t="s">
+        <v>37</v>
+      </c>
+      <c r="X39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y39">
+        <v>5000</v>
+      </c>
+      <c r="Z39">
+        <v>32</v>
+      </c>
+      <c r="AA39">
+        <v>18086.000000000004</v>
+      </c>
+      <c r="AB39">
+        <v>2.939963864333606E-2</v>
+      </c>
+      <c r="AE39">
+        <v>2.0202020202020203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40">
+        <v>34</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40">
+        <v>35</v>
+      </c>
+      <c r="J40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40">
+        <v>34</v>
+      </c>
+      <c r="L40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40">
+        <v>0.01</v>
+      </c>
+      <c r="R40">
+        <v>1.05</v>
+      </c>
+      <c r="S40">
+        <v>0.7</v>
+      </c>
+      <c r="T40">
+        <v>0.7</v>
+      </c>
+      <c r="U40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V40" t="s">
+        <v>37</v>
+      </c>
+      <c r="W40" t="s">
+        <v>37</v>
+      </c>
+      <c r="X40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y40">
+        <v>1000</v>
+      </c>
+      <c r="Z40">
+        <v>998</v>
+      </c>
+      <c r="AA40">
+        <v>21336</v>
+      </c>
+      <c r="AB40">
+        <v>1.8918920651670274E-3</v>
+      </c>
+      <c r="AE40">
+        <v>94.949494949494948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>99</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41">
+        <v>34</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41">
+        <v>35</v>
+      </c>
+      <c r="J41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41">
+        <v>34</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q41">
+        <v>0.01</v>
+      </c>
+      <c r="R41">
+        <v>1.05</v>
+      </c>
+      <c r="S41">
+        <v>0.7</v>
+      </c>
+      <c r="T41">
+        <v>0.7</v>
+      </c>
+      <c r="U41" t="s">
+        <v>39</v>
+      </c>
+      <c r="V41" t="s">
+        <v>37</v>
+      </c>
+      <c r="W41" t="s">
+        <v>37</v>
+      </c>
+      <c r="X41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y41">
+        <v>1000</v>
+      </c>
+      <c r="Z41">
+        <v>1000</v>
+      </c>
+      <c r="AA41">
+        <v>6001.9999999999991</v>
+      </c>
+      <c r="AB41">
+        <v>1.4710771628164536E-3</v>
+      </c>
+      <c r="AE41">
+        <v>95.959595959595958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42">
+        <v>35</v>
+      </c>
+      <c r="J42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42">
+        <v>34</v>
+      </c>
+      <c r="L42" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q42">
+        <v>0.01</v>
+      </c>
+      <c r="R42">
+        <v>1.05</v>
+      </c>
+      <c r="S42">
+        <v>0.7</v>
+      </c>
+      <c r="T42">
+        <v>0.7</v>
+      </c>
+      <c r="U42" t="s">
+        <v>39</v>
+      </c>
+      <c r="V42" t="s">
+        <v>37</v>
+      </c>
+      <c r="W42" t="s">
+        <v>37</v>
+      </c>
+      <c r="X42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y42">
+        <v>1000</v>
+      </c>
+      <c r="Z42">
+        <v>1000</v>
+      </c>
+      <c r="AA42">
+        <v>6475.0000000000018</v>
+      </c>
+      <c r="AB42">
+        <v>1.7784792138304311E-3</v>
+      </c>
+      <c r="AE42">
+        <v>94.949494949494948</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43">
+        <v>99</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43">
+        <v>34</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43">
+        <v>35</v>
+      </c>
+      <c r="J43" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43">
+        <v>34</v>
+      </c>
+      <c r="L43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q43">
+        <v>0.01</v>
+      </c>
+      <c r="R43">
+        <v>1.05</v>
+      </c>
+      <c r="S43">
+        <v>0.7</v>
+      </c>
+      <c r="T43">
+        <v>0.7</v>
+      </c>
+      <c r="U43" t="s">
+        <v>39</v>
+      </c>
+      <c r="V43" t="s">
+        <v>37</v>
+      </c>
+      <c r="W43" t="s">
+        <v>37</v>
+      </c>
+      <c r="X43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y43">
+        <v>2500</v>
+      </c>
+      <c r="Z43">
+        <v>2500</v>
+      </c>
+      <c r="AA43">
+        <v>14829.999999999998</v>
+      </c>
+      <c r="AB43">
+        <v>3.1334123150140342E-7</v>
+      </c>
+      <c r="AE43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44">
+        <v>99</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44">
+        <v>34</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44">
+        <v>34</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q44">
+        <v>0.01</v>
+      </c>
+      <c r="R44">
+        <v>1.05</v>
+      </c>
+      <c r="S44">
+        <v>0.7</v>
+      </c>
+      <c r="T44">
+        <v>0.7</v>
+      </c>
+      <c r="U44" t="s">
+        <v>39</v>
+      </c>
+      <c r="V44" t="s">
+        <v>37</v>
+      </c>
+      <c r="W44" t="s">
+        <v>37</v>
+      </c>
+      <c r="X44" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y44">
+        <v>2500</v>
+      </c>
+      <c r="Z44">
+        <v>2494</v>
+      </c>
+      <c r="AA44">
+        <v>12996.000000000002</v>
+      </c>
+      <c r="AB44">
+        <v>2.9716774466178859E-4</v>
+      </c>
+      <c r="AE44">
+        <v>98.98989898989899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45">
+        <v>34</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45">
+        <v>35</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45">
+        <v>34</v>
+      </c>
+      <c r="L45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q45">
+        <v>0.01</v>
+      </c>
+      <c r="R45">
+        <v>1.05</v>
+      </c>
+      <c r="S45">
+        <v>0.7</v>
+      </c>
+      <c r="T45">
+        <v>0.7</v>
+      </c>
+      <c r="U45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V45" t="s">
+        <v>37</v>
+      </c>
+      <c r="W45" t="s">
+        <v>37</v>
+      </c>
+      <c r="X45" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y45">
+        <v>2500</v>
+      </c>
+      <c r="Z45">
+        <v>2500</v>
+      </c>
+      <c r="AA45">
+        <v>14976</v>
+      </c>
+      <c r="AB45">
+        <v>2.9450428649774439E-9</v>
+      </c>
+      <c r="AE45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46">
+        <v>34</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46">
+        <v>35</v>
+      </c>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46">
+        <v>34</v>
+      </c>
+      <c r="L46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q46">
+        <v>0.01</v>
+      </c>
+      <c r="R46">
+        <v>1.05</v>
+      </c>
+      <c r="S46">
+        <v>0.7</v>
+      </c>
+      <c r="T46">
+        <v>0.7</v>
+      </c>
+      <c r="U46" t="s">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s">
+        <v>37</v>
+      </c>
+      <c r="W46" t="s">
+        <v>37</v>
+      </c>
+      <c r="X46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y46">
+        <v>5000</v>
+      </c>
+      <c r="Z46">
+        <v>5000</v>
+      </c>
+      <c r="AA46">
+        <v>28888.999999999996</v>
+      </c>
+      <c r="AB46">
+        <v>8.8636890951590749E-14</v>
+      </c>
+      <c r="AE46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47">
+        <v>99</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47">
+        <v>34</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47">
+        <v>35</v>
+      </c>
+      <c r="J47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47">
+        <v>34</v>
+      </c>
+      <c r="L47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q47">
+        <v>0.01</v>
+      </c>
+      <c r="R47">
+        <v>1.05</v>
+      </c>
+      <c r="S47">
+        <v>0.7</v>
+      </c>
+      <c r="T47">
+        <v>0.7</v>
+      </c>
+      <c r="U47" t="s">
+        <v>39</v>
+      </c>
+      <c r="V47" t="s">
+        <v>37</v>
+      </c>
+      <c r="W47" t="s">
+        <v>37</v>
+      </c>
+      <c r="X47" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y47">
+        <v>5000</v>
+      </c>
+      <c r="Z47">
+        <v>5000</v>
+      </c>
+      <c r="AA47">
+        <v>28567.999999999996</v>
+      </c>
+      <c r="AB47">
+        <v>6.9525526346933029E-14</v>
+      </c>
+      <c r="AE47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48">
+        <v>99</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48">
+        <v>34</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48">
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48">
+        <v>34</v>
+      </c>
+      <c r="L48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q48">
+        <v>0.01</v>
+      </c>
+      <c r="R48">
+        <v>1.05</v>
+      </c>
+      <c r="S48">
+        <v>0.7</v>
+      </c>
+      <c r="T48">
+        <v>0.7</v>
+      </c>
+      <c r="U48" t="s">
+        <v>39</v>
+      </c>
+      <c r="V48" t="s">
+        <v>37</v>
+      </c>
+      <c r="W48" t="s">
+        <v>37</v>
+      </c>
+      <c r="X48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y48">
+        <v>5000</v>
+      </c>
+      <c r="Z48">
+        <v>5000</v>
+      </c>
+      <c r="AA48">
+        <v>28294.000000000004</v>
+      </c>
+      <c r="AB48">
+        <v>3.9043801264235276E-15</v>
+      </c>
+      <c r="AE48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49">
+        <v>99</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49">
+        <v>34</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49">
+        <v>35</v>
+      </c>
+      <c r="J49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49">
+        <v>34</v>
+      </c>
+      <c r="L49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>37</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q49">
+        <v>0.01</v>
+      </c>
+      <c r="R49">
+        <v>1.05</v>
+      </c>
+      <c r="S49">
+        <v>0.7</v>
+      </c>
+      <c r="T49">
+        <v>0.7</v>
+      </c>
+      <c r="U49" t="s">
+        <v>39</v>
+      </c>
+      <c r="V49" t="s">
+        <v>37</v>
+      </c>
+      <c r="W49" t="s">
+        <v>37</v>
+      </c>
+      <c r="X49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y49">
+        <v>763</v>
+      </c>
+      <c r="Z49">
+        <v>226</v>
+      </c>
+      <c r="AA49">
+        <v>4404</v>
+      </c>
+      <c r="AB49">
+        <v>1.3498882272040378E-2</v>
+      </c>
+      <c r="AE49">
+        <v>59.595959595959592</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50">
+        <v>99</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>34</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50">
+        <v>35</v>
+      </c>
+      <c r="J50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50">
+        <v>34</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q50">
+        <v>0.01</v>
+      </c>
+      <c r="R50">
+        <v>1.05</v>
+      </c>
+      <c r="S50">
+        <v>0.7</v>
+      </c>
+      <c r="T50">
+        <v>0.7</v>
+      </c>
+      <c r="U50" t="s">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s">
+        <v>37</v>
+      </c>
+      <c r="W50" t="s">
+        <v>37</v>
+      </c>
+      <c r="X50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y50">
+        <v>879</v>
+      </c>
+      <c r="Z50">
+        <v>120</v>
+      </c>
+      <c r="AA50">
+        <v>4933.0000000000018</v>
+      </c>
+      <c r="AB50">
+        <v>1.2851392559345863E-2</v>
+      </c>
+      <c r="AE50">
+        <v>62.62626262626263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51">
+        <v>99</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51">
+        <v>34</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51">
+        <v>35</v>
+      </c>
+      <c r="J51" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51">
+        <v>34</v>
+      </c>
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51">
+        <v>0.01</v>
+      </c>
+      <c r="R51">
+        <v>1.05</v>
+      </c>
+      <c r="S51">
+        <v>0.7</v>
+      </c>
+      <c r="T51">
+        <v>0.7</v>
+      </c>
+      <c r="U51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V51" t="s">
+        <v>37</v>
+      </c>
+      <c r="W51" t="s">
+        <v>37</v>
+      </c>
+      <c r="X51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y51">
+        <v>1000</v>
+      </c>
+      <c r="Z51">
+        <v>70</v>
+      </c>
+      <c r="AA51">
+        <v>5788</v>
+      </c>
+      <c r="AB51">
+        <v>1.4955001651522718E-2</v>
+      </c>
+      <c r="AE51">
+        <v>61.616161616161612</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52">
+        <v>99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52">
+        <v>34</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52">
+        <v>35</v>
+      </c>
+      <c r="J52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52">
+        <v>34</v>
+      </c>
+      <c r="L52" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q52">
+        <v>0.01</v>
+      </c>
+      <c r="R52">
+        <v>1.05</v>
+      </c>
+      <c r="S52">
+        <v>0.7</v>
+      </c>
+      <c r="T52">
+        <v>0.7</v>
+      </c>
+      <c r="U52" t="s">
+        <v>39</v>
+      </c>
+      <c r="V52" t="s">
+        <v>37</v>
+      </c>
+      <c r="W52" t="s">
+        <v>37</v>
+      </c>
+      <c r="X52" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y52">
+        <v>1235</v>
+      </c>
+      <c r="Z52">
+        <v>97</v>
+      </c>
+      <c r="AA52">
+        <v>7253.9999999999982</v>
+      </c>
+      <c r="AB52">
+        <v>1.1998174052872958E-2</v>
+      </c>
+      <c r="AE52">
+        <v>68.686868686868678</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>99</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53">
+        <v>34</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53">
+        <v>35</v>
+      </c>
+      <c r="J53" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53">
+        <v>34</v>
+      </c>
+      <c r="L53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q53">
+        <v>0.01</v>
+      </c>
+      <c r="R53">
+        <v>1.05</v>
+      </c>
+      <c r="S53">
+        <v>0.7</v>
+      </c>
+      <c r="T53">
+        <v>0.7</v>
+      </c>
+      <c r="U53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V53" t="s">
+        <v>37</v>
+      </c>
+      <c r="W53" t="s">
+        <v>37</v>
+      </c>
+      <c r="X53" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y53">
+        <v>2500</v>
+      </c>
+      <c r="Z53">
+        <v>51</v>
+      </c>
+      <c r="AA53">
+        <v>14480.000000000004</v>
+      </c>
+      <c r="AB53">
+        <v>1.6764144402840461E-2</v>
+      </c>
+      <c r="AE53">
+        <v>56.56565656565656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54">
+        <v>99</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54">
+        <v>34</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54">
+        <v>35</v>
+      </c>
+      <c r="J54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54">
+        <v>34</v>
+      </c>
+      <c r="L54" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q54">
+        <v>0.01</v>
+      </c>
+      <c r="R54">
+        <v>1.05</v>
+      </c>
+      <c r="S54">
+        <v>0.7</v>
+      </c>
+      <c r="T54">
+        <v>0.7</v>
+      </c>
+      <c r="U54" t="s">
+        <v>39</v>
+      </c>
+      <c r="V54" t="s">
+        <v>37</v>
+      </c>
+      <c r="W54" t="s">
+        <v>37</v>
+      </c>
+      <c r="X54" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y54">
+        <v>446</v>
+      </c>
+      <c r="Z54">
+        <v>96</v>
+      </c>
+      <c r="AA54">
+        <v>2660</v>
+      </c>
+      <c r="AB54">
+        <v>1.308571068978753E-2</v>
+      </c>
+      <c r="AE54">
+        <v>67.676767676767682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55">
+        <v>34</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55">
+        <v>35</v>
+      </c>
+      <c r="J55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55">
+        <v>34</v>
+      </c>
+      <c r="L55" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q55">
+        <v>0.01</v>
+      </c>
+      <c r="R55">
+        <v>1.05</v>
+      </c>
+      <c r="S55">
+        <v>0.7</v>
+      </c>
+      <c r="T55">
+        <v>0.7</v>
+      </c>
+      <c r="U55" t="s">
+        <v>39</v>
+      </c>
+      <c r="V55" t="s">
+        <v>37</v>
+      </c>
+      <c r="W55" t="s">
+        <v>37</v>
+      </c>
+      <c r="X55" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y55">
+        <v>251</v>
+      </c>
+      <c r="Z55">
+        <v>82</v>
+      </c>
+      <c r="AA55">
+        <v>1513</v>
+      </c>
+      <c r="AB55">
+        <v>1.499772958087422E-2</v>
+      </c>
+      <c r="AE55">
+        <v>59.595959595959592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56">
+        <v>99</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56">
+        <v>34</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56">
+        <v>35</v>
+      </c>
+      <c r="J56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56">
+        <v>34</v>
+      </c>
+      <c r="L56" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q56">
+        <v>0.01</v>
+      </c>
+      <c r="R56">
+        <v>1.05</v>
+      </c>
+      <c r="S56">
+        <v>0.7</v>
+      </c>
+      <c r="T56">
+        <v>0.7</v>
+      </c>
+      <c r="U56" t="s">
+        <v>39</v>
+      </c>
+      <c r="V56" t="s">
+        <v>37</v>
+      </c>
+      <c r="W56" t="s">
+        <v>37</v>
+      </c>
+      <c r="X56" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y56">
+        <v>1242</v>
+      </c>
+      <c r="Z56">
+        <v>94</v>
+      </c>
+      <c r="AA56">
+        <v>7395.0000000000009</v>
+      </c>
+      <c r="AB56">
+        <v>1.2399609108258276E-2</v>
+      </c>
+      <c r="AE56">
+        <v>68.686868686868678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>99</v>
+      </c>
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57">
+        <v>34</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57">
+        <v>35</v>
+      </c>
+      <c r="J57" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57">
+        <v>34</v>
+      </c>
+      <c r="L57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q57">
+        <v>0.01</v>
+      </c>
+      <c r="R57">
+        <v>1.05</v>
+      </c>
+      <c r="S57">
+        <v>0.7</v>
+      </c>
+      <c r="T57">
+        <v>0.7</v>
+      </c>
+      <c r="U57" t="s">
+        <v>39</v>
+      </c>
+      <c r="V57" t="s">
+        <v>37</v>
+      </c>
+      <c r="W57" t="s">
+        <v>37</v>
+      </c>
+      <c r="X57" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y57">
+        <v>154</v>
+      </c>
+      <c r="Z57">
+        <v>35</v>
+      </c>
+      <c r="AA57">
+        <v>1020.9999999999973</v>
+      </c>
+      <c r="AB57">
+        <v>1.999425918864001E-2</v>
+      </c>
+      <c r="AE57">
+        <v>47.474747474747474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58">
+        <v>99</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58">
+        <v>34</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58">
+        <v>35</v>
+      </c>
+      <c r="J58" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58">
+        <v>34</v>
+      </c>
+      <c r="L58" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58">
+        <v>0.01</v>
+      </c>
+      <c r="R58">
+        <v>1.05</v>
+      </c>
+      <c r="S58">
+        <v>0.7</v>
+      </c>
+      <c r="T58">
+        <v>0.7</v>
+      </c>
+      <c r="U58" t="s">
+        <v>39</v>
+      </c>
+      <c r="V58" t="s">
+        <v>37</v>
+      </c>
+      <c r="W58" t="s">
+        <v>37</v>
+      </c>
+      <c r="X58" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y58">
+        <v>1000</v>
+      </c>
+      <c r="Z58">
+        <v>1000</v>
+      </c>
+      <c r="AA58">
+        <v>8574.0000000000018</v>
+      </c>
+      <c r="AB58">
+        <v>5.6150399513308208E-9</v>
+      </c>
+      <c r="AE58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59">
+        <v>99</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59">
+        <v>34</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59">
+        <v>35</v>
+      </c>
+      <c r="J59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59">
+        <v>34</v>
+      </c>
+      <c r="L59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q59">
+        <v>0.01</v>
+      </c>
+      <c r="R59">
+        <v>1.05</v>
+      </c>
+      <c r="S59">
+        <v>0.7</v>
+      </c>
+      <c r="T59">
+        <v>0.7</v>
+      </c>
+      <c r="U59" t="s">
+        <v>39</v>
+      </c>
+      <c r="V59" t="s">
+        <v>37</v>
+      </c>
+      <c r="W59" t="s">
+        <v>37</v>
+      </c>
+      <c r="X59" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y59">
+        <v>1000</v>
+      </c>
+      <c r="Z59">
+        <v>1000</v>
+      </c>
+      <c r="AA59">
+        <v>8473.0000000000055</v>
+      </c>
+      <c r="AB59">
+        <v>1.1582048903042857E-12</v>
+      </c>
+      <c r="AE59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60">
+        <v>99</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60">
+        <v>34</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60">
+        <v>35</v>
+      </c>
+      <c r="J60" t="s">
+        <v>36</v>
+      </c>
+      <c r="K60">
+        <v>34</v>
+      </c>
+      <c r="L60" t="s">
+        <v>37</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q60">
+        <v>0.01</v>
+      </c>
+      <c r="R60">
+        <v>1.05</v>
+      </c>
+      <c r="S60">
+        <v>0.7</v>
+      </c>
+      <c r="T60">
+        <v>0.7</v>
+      </c>
+      <c r="U60" t="s">
+        <v>39</v>
+      </c>
+      <c r="V60" t="s">
+        <v>37</v>
+      </c>
+      <c r="W60" t="s">
+        <v>37</v>
+      </c>
+      <c r="X60" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y60">
+        <v>1000</v>
+      </c>
+      <c r="Z60">
+        <v>1000</v>
+      </c>
+      <c r="AA60">
+        <v>8119</v>
+      </c>
+      <c r="AB60">
+        <v>2.5727100895722043E-10</v>
+      </c>
+      <c r="AE60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61">
+        <v>99</v>
+      </c>
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61">
+        <v>34</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61">
+        <v>35</v>
+      </c>
+      <c r="J61" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61">
+        <v>34</v>
+      </c>
+      <c r="L61" t="s">
+        <v>37</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61">
+        <v>0.01</v>
+      </c>
+      <c r="R61">
+        <v>1.05</v>
+      </c>
+      <c r="S61">
+        <v>0.7</v>
+      </c>
+      <c r="T61">
+        <v>0.7</v>
+      </c>
+      <c r="U61" t="s">
+        <v>39</v>
+      </c>
+      <c r="V61" t="s">
+        <v>37</v>
+      </c>
+      <c r="W61" t="s">
+        <v>37</v>
+      </c>
+      <c r="X61" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y61">
+        <v>2500</v>
+      </c>
+      <c r="Z61">
+        <v>2500</v>
+      </c>
+      <c r="AA61">
+        <v>20061.999999999996</v>
+      </c>
+      <c r="AB61">
+        <v>5.4176538122907651E-23</v>
+      </c>
+      <c r="AE61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62">
+        <v>99</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62">
+        <v>34</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62">
+        <v>35</v>
+      </c>
+      <c r="J62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62">
+        <v>34</v>
+      </c>
+      <c r="L62" t="s">
+        <v>37</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q62">
+        <v>0.01</v>
+      </c>
+      <c r="R62">
+        <v>1.05</v>
+      </c>
+      <c r="S62">
+        <v>0.7</v>
+      </c>
+      <c r="T62">
+        <v>0.7</v>
+      </c>
+      <c r="U62" t="s">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s">
+        <v>37</v>
+      </c>
+      <c r="W62" t="s">
+        <v>37</v>
+      </c>
+      <c r="X62" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y62">
+        <v>2500</v>
+      </c>
+      <c r="Z62">
+        <v>2485</v>
+      </c>
+      <c r="AA62">
+        <v>20169.999999999996</v>
+      </c>
+      <c r="AB62">
+        <v>1.9628380401457276E-29</v>
+      </c>
+      <c r="AE62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63">
+        <v>99</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63">
+        <v>34</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63">
+        <v>35</v>
+      </c>
+      <c r="J63" t="s">
+        <v>36</v>
+      </c>
+      <c r="K63">
+        <v>34</v>
+      </c>
+      <c r="L63" t="s">
+        <v>37</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>37</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q63">
+        <v>0.01</v>
+      </c>
+      <c r="R63">
+        <v>1.05</v>
+      </c>
+      <c r="S63">
+        <v>0.7</v>
+      </c>
+      <c r="T63">
+        <v>0.7</v>
+      </c>
+      <c r="U63" t="s">
+        <v>39</v>
+      </c>
+      <c r="V63" t="s">
+        <v>37</v>
+      </c>
+      <c r="W63" t="s">
+        <v>37</v>
+      </c>
+      <c r="X63" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y63">
+        <v>2500</v>
+      </c>
+      <c r="Z63">
+        <v>2500</v>
+      </c>
+      <c r="AA63">
+        <v>20000</v>
+      </c>
+      <c r="AB63">
+        <v>7.2073443779805383E-14</v>
+      </c>
+      <c r="AE63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64">
+        <v>99</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64">
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64">
+        <v>35</v>
+      </c>
+      <c r="J64" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64">
+        <v>34</v>
+      </c>
+      <c r="L64" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>37</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q64">
+        <v>0.01</v>
+      </c>
+      <c r="R64">
+        <v>1.05</v>
+      </c>
+      <c r="S64">
+        <v>0.7</v>
+      </c>
+      <c r="T64">
+        <v>0.7</v>
+      </c>
+      <c r="U64" t="s">
+        <v>39</v>
+      </c>
+      <c r="V64" t="s">
+        <v>37</v>
+      </c>
+      <c r="W64" t="s">
+        <v>37</v>
+      </c>
+      <c r="X64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y64">
+        <v>5000</v>
+      </c>
+      <c r="Z64">
+        <v>5000</v>
+      </c>
+      <c r="AA64">
+        <v>39632.000000000007</v>
+      </c>
+      <c r="AB64">
+        <v>2.4455322065416535E-2</v>
+      </c>
+      <c r="AE64">
+        <v>17.171717171717169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65">
+        <v>99</v>
+      </c>
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65">
+        <v>34</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65">
+        <v>35</v>
+      </c>
+      <c r="J65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K65">
+        <v>34</v>
+      </c>
+      <c r="L65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>37</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q65">
+        <v>0.01</v>
+      </c>
+      <c r="R65">
+        <v>1.05</v>
+      </c>
+      <c r="S65">
+        <v>0.7</v>
+      </c>
+      <c r="T65">
+        <v>0.7</v>
+      </c>
+      <c r="U65" t="s">
+        <v>39</v>
+      </c>
+      <c r="V65" t="s">
+        <v>37</v>
+      </c>
+      <c r="W65" t="s">
+        <v>37</v>
+      </c>
+      <c r="X65" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y65">
+        <v>5000</v>
+      </c>
+      <c r="Z65">
+        <v>2457</v>
+      </c>
+      <c r="AA65">
+        <v>33931.999999999993</v>
+      </c>
+      <c r="AB65">
+        <v>1.7806154426447223E-28</v>
+      </c>
+      <c r="AE65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66">
+        <v>99</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66">
+        <v>34</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66">
+        <v>35</v>
+      </c>
+      <c r="J66" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66">
+        <v>34</v>
+      </c>
+      <c r="L66" t="s">
+        <v>37</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>37</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q66">
+        <v>0.01</v>
+      </c>
+      <c r="R66">
+        <v>1.05</v>
+      </c>
+      <c r="S66">
+        <v>0.7</v>
+      </c>
+      <c r="T66">
+        <v>0.7</v>
+      </c>
+      <c r="U66" t="s">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s">
+        <v>37</v>
+      </c>
+      <c r="W66" t="s">
+        <v>37</v>
+      </c>
+      <c r="X66" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y66">
+        <v>5000</v>
+      </c>
+      <c r="Z66">
+        <v>2992</v>
+      </c>
+      <c r="AA66">
+        <v>35131</v>
+      </c>
+      <c r="AB66">
+        <v>1.006951060757828E-29</v>
+      </c>
+      <c r="AE66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>99</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67">
+        <v>34</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67">
+        <v>35</v>
+      </c>
+      <c r="J67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67">
+        <v>34</v>
+      </c>
+      <c r="L67" t="s">
+        <v>37</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q67">
+        <v>0.01</v>
+      </c>
+      <c r="R67">
+        <v>1.05</v>
+      </c>
+      <c r="S67">
+        <v>0.7</v>
+      </c>
+      <c r="T67">
+        <v>0.7</v>
+      </c>
+      <c r="U67" t="s">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s">
+        <v>37</v>
+      </c>
+      <c r="W67" t="s">
+        <v>37</v>
+      </c>
+      <c r="X67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y67">
+        <v>1000</v>
+      </c>
+      <c r="Z67">
+        <v>1000</v>
+      </c>
+      <c r="AA67">
+        <v>12784</v>
+      </c>
+      <c r="AB67">
+        <v>7.7615237352849373E-3</v>
+      </c>
+      <c r="AE67">
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68">
+        <v>34</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68">
+        <v>35</v>
+      </c>
+      <c r="J68" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68">
+        <v>34</v>
+      </c>
+      <c r="L68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>37</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q68">
+        <v>0.01</v>
+      </c>
+      <c r="R68">
+        <v>1.05</v>
+      </c>
+      <c r="S68">
+        <v>0.7</v>
+      </c>
+      <c r="T68">
+        <v>0.7</v>
+      </c>
+      <c r="U68" t="s">
+        <v>39</v>
+      </c>
+      <c r="V68" t="s">
+        <v>37</v>
+      </c>
+      <c r="W68" t="s">
+        <v>37</v>
+      </c>
+      <c r="X68" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y68">
+        <v>1000</v>
+      </c>
+      <c r="Z68">
+        <v>1000</v>
+      </c>
+      <c r="AA68">
+        <v>12946.000000000002</v>
+      </c>
+      <c r="AB68">
+        <v>4.8056193418272095E-3</v>
+      </c>
+      <c r="AE68">
+        <v>85.858585858585855</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69">
+        <v>99</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69">
+        <v>34</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69">
+        <v>35</v>
+      </c>
+      <c r="J69" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69">
+        <v>34</v>
+      </c>
+      <c r="L69" t="s">
+        <v>37</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q69">
+        <v>0.01</v>
+      </c>
+      <c r="R69">
+        <v>1.05</v>
+      </c>
+      <c r="S69">
+        <v>0.7</v>
+      </c>
+      <c r="T69">
+        <v>0.7</v>
+      </c>
+      <c r="U69" t="s">
+        <v>39</v>
+      </c>
+      <c r="V69" t="s">
+        <v>37</v>
+      </c>
+      <c r="W69" t="s">
+        <v>37</v>
+      </c>
+      <c r="X69" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y69">
+        <v>1000</v>
+      </c>
+      <c r="Z69">
+        <v>1000</v>
+      </c>
+      <c r="AA69">
+        <v>12915.999999999996</v>
+      </c>
+      <c r="AB69">
+        <v>1.5264375507316632E-2</v>
+      </c>
+      <c r="AE69">
+        <v>48.484848484848484</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70">
+        <v>99</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>34</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70">
+        <v>35</v>
+      </c>
+      <c r="J70" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70">
+        <v>34</v>
+      </c>
+      <c r="L70" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>37</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q70">
+        <v>0.01</v>
+      </c>
+      <c r="R70">
+        <v>1.05</v>
+      </c>
+      <c r="S70">
+        <v>0.7</v>
+      </c>
+      <c r="T70">
+        <v>0.7</v>
+      </c>
+      <c r="U70" t="s">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s">
+        <v>37</v>
+      </c>
+      <c r="W70" t="s">
+        <v>37</v>
+      </c>
+      <c r="X70" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y70">
+        <v>2500</v>
+      </c>
+      <c r="Z70">
+        <v>2500</v>
+      </c>
+      <c r="AA70">
+        <v>37749</v>
+      </c>
+      <c r="AB70">
+        <v>3.5220661521748554E-2</v>
+      </c>
+      <c r="AE70">
+        <v>38.383838383838381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71">
+        <v>99</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71">
+        <v>34</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71">
+        <v>35</v>
+      </c>
+      <c r="J71" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71">
+        <v>34</v>
+      </c>
+      <c r="L71" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>37</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q71">
+        <v>0.01</v>
+      </c>
+      <c r="R71">
+        <v>1.05</v>
+      </c>
+      <c r="S71">
+        <v>0.7</v>
+      </c>
+      <c r="T71">
+        <v>0.7</v>
+      </c>
+      <c r="U71" t="s">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s">
+        <v>37</v>
+      </c>
+      <c r="W71" t="s">
+        <v>37</v>
+      </c>
+      <c r="X71" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y71">
+        <v>2500</v>
+      </c>
+      <c r="Z71">
+        <v>2500</v>
+      </c>
+      <c r="AA71">
+        <v>33547</v>
+      </c>
+      <c r="AB71">
+        <v>1.348537813348118E-2</v>
+      </c>
+      <c r="AE71">
+        <v>54.54545454545454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72">
+        <v>99</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72">
+        <v>34</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72">
+        <v>35</v>
+      </c>
+      <c r="J72" t="s">
+        <v>36</v>
+      </c>
+      <c r="K72">
+        <v>34</v>
+      </c>
+      <c r="L72" t="s">
+        <v>37</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>37</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q72">
+        <v>0.01</v>
+      </c>
+      <c r="R72">
+        <v>1.05</v>
+      </c>
+      <c r="S72">
+        <v>0.7</v>
+      </c>
+      <c r="T72">
+        <v>0.7</v>
+      </c>
+      <c r="U72" t="s">
+        <v>39</v>
+      </c>
+      <c r="V72" t="s">
+        <v>37</v>
+      </c>
+      <c r="W72" t="s">
+        <v>37</v>
+      </c>
+      <c r="X72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y72">
+        <v>2500</v>
+      </c>
+      <c r="Z72">
+        <v>2500</v>
+      </c>
+      <c r="AA72">
+        <v>32820</v>
+      </c>
+      <c r="AB72">
+        <v>1.6550039777505448E-2</v>
+      </c>
+      <c r="AE72">
+        <v>43.43434343434344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73">
+        <v>99</v>
+      </c>
+      <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73">
+        <v>34</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73">
+        <v>35</v>
+      </c>
+      <c r="J73" t="s">
+        <v>36</v>
+      </c>
+      <c r="K73">
+        <v>34</v>
+      </c>
+      <c r="L73" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q73">
+        <v>0.01</v>
+      </c>
+      <c r="R73">
+        <v>1.05</v>
+      </c>
+      <c r="S73">
+        <v>0.7</v>
+      </c>
+      <c r="T73">
+        <v>0.7</v>
+      </c>
+      <c r="U73" t="s">
+        <v>39</v>
+      </c>
+      <c r="V73" t="s">
+        <v>37</v>
+      </c>
+      <c r="W73" t="s">
+        <v>37</v>
+      </c>
+      <c r="X73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y73">
+        <v>5000</v>
+      </c>
+      <c r="Z73">
+        <v>5000</v>
+      </c>
+      <c r="AA73">
+        <v>65667</v>
+      </c>
+      <c r="AB73">
+        <v>8.0250532665093396E-3</v>
+      </c>
+      <c r="AE73">
+        <v>75.757575757575751</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74">
+        <v>99</v>
+      </c>
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74">
+        <v>34</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74">
+        <v>35</v>
+      </c>
+      <c r="J74" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74">
+        <v>34</v>
+      </c>
+      <c r="L74" t="s">
+        <v>37</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>37</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q74">
+        <v>0.01</v>
+      </c>
+      <c r="R74">
+        <v>1.05</v>
+      </c>
+      <c r="S74">
+        <v>0.7</v>
+      </c>
+      <c r="T74">
+        <v>0.7</v>
+      </c>
+      <c r="U74" t="s">
+        <v>39</v>
+      </c>
+      <c r="V74" t="s">
+        <v>37</v>
+      </c>
+      <c r="W74" t="s">
+        <v>37</v>
+      </c>
+      <c r="X74" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y74">
+        <v>5000</v>
+      </c>
+      <c r="Z74">
+        <v>246</v>
+      </c>
+      <c r="AA74">
+        <v>39349.000000000007</v>
+      </c>
+      <c r="AB74">
+        <v>3.6239195513143738E-2</v>
+      </c>
+      <c r="AE74">
+        <v>38.383838383838381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75">
+        <v>99</v>
+      </c>
+      <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75">
+        <v>34</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75">
+        <v>35</v>
+      </c>
+      <c r="J75" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75">
+        <v>34</v>
+      </c>
+      <c r="L75" t="s">
+        <v>37</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>37</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q75">
+        <v>0.01</v>
+      </c>
+      <c r="R75">
+        <v>1.05</v>
+      </c>
+      <c r="S75">
+        <v>0.7</v>
+      </c>
+      <c r="T75">
+        <v>0.7</v>
+      </c>
+      <c r="U75" t="s">
+        <v>39</v>
+      </c>
+      <c r="V75" t="s">
+        <v>37</v>
+      </c>
+      <c r="W75" t="s">
+        <v>37</v>
+      </c>
+      <c r="X75" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y75">
+        <v>5000</v>
+      </c>
+      <c r="Z75">
+        <v>5000</v>
+      </c>
+      <c r="AA75">
+        <v>63076</v>
+      </c>
+      <c r="AB75">
+        <v>1.4852419512775862E-2</v>
+      </c>
+      <c r="AE75">
+        <v>49.494949494949495</v>
       </c>
     </row>
   </sheetData>
